--- a/TrelloClone-master/src/TrelloClone/wwwroot/Отчёт.xlsx
+++ b/TrelloClone-master/src/TrelloClone/wwwroot/Отчёт.xlsx
@@ -6,9 +6,9 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Январь" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Ферваль" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Март" sheetId="4" r:id="rId4"/>
+    <x:sheet name="Апрель" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Май" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Июнь" sheetId="4" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -69,49 +69,64 @@
     <x:t>Полякова Инна Юлиановна</x:t>
   </x:si>
   <x:si>
-    <x:t>fdsfdsf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dsfsdfsdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01.02.2025 00:00:00</x:t>
+    <x:t>Задача 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Перенос</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.04.2024 0:00:00</x:t>
   </x:si>
   <x:si>
     <x:t>Выполнено в надлежащем качестве в установленный срок / Выполнено в надлежащем качестве</x:t>
   </x:si>
   <x:si>
-    <x:t>fsdfsdfs</x:t>
+    <x:t>Комент</x:t>
   </x:si>
   <x:si>
     <x:t>-</x:t>
   </x:si>
   <x:si>
-    <x:t>sdfsd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fdsfds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fsdfdsfsd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.01.2025 00:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Просрочено</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dsgsdg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fsdfds</x:t>
+    <x:t>100%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Задача 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Просрал срок</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09.05.2024 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>вапиртьлбдюжэ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Задача 3(П)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Просрочка(П)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08.04.2024 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнено в надлежащем качестве с нарушением срока от 8 до 30 календарных дней, включительно</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ачт</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнено в надлежащем качестве с нарушением срока свыше 30 календарных дней</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Просрочена на следующий квартал</x:t>
   </x:si>
   <x:si>
     <x:t>0%</x:t>
   </x:si>
   <x:si>
-    <x:t>100%</x:t>
+    <x:t>50%</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -477,11 +492,26 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M3"/>
+  <x:dimension ref="A1:M4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="22.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="32.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="26.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="29.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="55.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="33.996339" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="96.996339" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="24.710625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="91.853482" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="46.853482" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="106.424911" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="1" t="s">
@@ -556,13 +586,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="M2" s="0" t="s">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13">
@@ -591,19 +621,60 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="J3" s="0" t="s">
+      <x:c r="K3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="M3" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>30</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -620,11 +691,26 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M3"/>
+  <x:dimension ref="A1:M4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="22.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="32.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="26.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="29.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="55.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="33.996339" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="96.996339" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="24.710625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="91.853482" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="46.853482" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="106.424911" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="1" t="s">
@@ -699,13 +785,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13">
@@ -734,19 +820,60 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="J3" s="0" t="s">
+      <x:c r="K3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="M3" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>30</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -763,11 +890,26 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M3"/>
+  <x:dimension ref="A1:M4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="22.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="32.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="26.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="29.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="55.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="33.996339" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="96.996339" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="24.710625" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="91.853482" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="46.853482" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="106.424911" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="1" t="s">
@@ -842,10 +984,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>23</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
         <x:v>22</x:v>
@@ -877,19 +1019,60 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="J3" s="0" t="s">
+      <x:c r="K3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="M3" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>30</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/TrelloClone-master/src/TrelloClone/wwwroot/Отчёт.xlsx
+++ b/TrelloClone-master/src/TrelloClone/wwwroot/Отчёт.xlsx
@@ -6,9 +6,12 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Апрель" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Май" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Июнь" sheetId="4" r:id="rId4"/>
+    <x:sheet name="Декабрь" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Январь" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Ферваль" sheetId="4" r:id="rId4"/>
+    <x:sheet name="Март" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Апрель" sheetId="6" r:id="rId6"/>
+    <x:sheet name="Май" sheetId="7" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -69,64 +72,203 @@
     <x:t>Полякова Инна Юлиановна</x:t>
   </x:si>
   <x:si>
-    <x:t>Задача 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Перенос</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25.04.2024 0:00:00</x:t>
+    <x:t>после отч пер</x:t>
+  </x:si>
+  <x:si>
+    <x:t>лждж</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01.05.2024 0:00:00</x:t>
   </x:si>
   <x:si>
     <x:t>Выполнено в надлежащем качестве в установленный срок / Выполнено в надлежащем качестве</x:t>
   </x:si>
   <x:si>
-    <x:t>Комент</x:t>
+    <x:t>,,,,,,,,,</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не выполнено</x:t>
   </x:si>
   <x:si>
     <x:t>-</x:t>
   </x:si>
   <x:si>
+    <x:t>0%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ПРОСРОЧКА НА СЛ КВ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ПРОСРОЧКА С 1 НА 2 КВ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.03.2024 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Переход</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01.01.2024 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Изм исп</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54545343121212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.01.2024 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Закрыто</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вып 0,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.01.2024 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнено в надлежащем качестве с нарушением срока свыше 30 календарных дней</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iiiiii</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вып 0,3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.02.2024 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>В процессе выполнения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>====</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнено в ненадлежащем качестве в установленный срок</x:t>
+  </x:si>
+  <x:si>
+    <x:t>не выполнено</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01.03.2024 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">в процессе </x:t>
+  </x:si>
+  <x:si>
+    <x:t>в процессе 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0--========k k k k  kk k k  k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ПРОСРОЧКА ЧЕРЕЗ 1 КВ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ПРОСРОЧКА С 1 НА 3 КВ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Просрочено</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Без самооц</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jhjh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.02.2024 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Изм рук123</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">гнгкнгн г вн в </x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.02.2024 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Обучение сотрудников</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Провести обучение сотрудников подразделения XXX, направленное на развитие корпоративных компетенций</x:t>
+  </x:si>
+  <x:si>
+    <x:t>888888888888888888</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчёт за 4 квартал 2023 года</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подготовить Отчёт по XXX за 4 квартал 2023 года не позднее 22.01.2024 г.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.01.2024 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вып1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>выполнено - 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнено в надлежащем качестве с нарушением срока от 8 до 30 календарных дней, включительно</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mmm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вып 0,9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02.01.2024 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Выполнено в надлежащем качестве с нарушением срока до 7 календарных дней, включительно</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1213131321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вып 0,8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03.01.2024 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>;;.;.;..</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80
+123</x:t>
+  </x:si>
+  <x:si>
     <x:t>100%</x:t>
   </x:si>
   <x:si>
-    <x:t>Задача 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Просрал срок</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09.05.2024 0:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>вапиртьлбдюжэ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Задача 3(П)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Просрочка(П)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08.04.2024 0:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Выполнено в надлежащем качестве с нарушением срока от 8 до 30 календарных дней, включительно</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ачт</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Выполнено в надлежащем качестве с нарушением срока свыше 30 календарных дней</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Просрочена на следующий квартал</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0%</x:t>
+    <x:t>90%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80%</x:t>
   </x:si>
   <x:si>
     <x:t>50%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30%</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -188,13 +330,17 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -492,7 +638,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M4"/>
+  <x:dimension ref="A1:M17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -504,11 +650,11 @@
     <x:col min="4" max="4" width="32.996339" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="26.567768" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="29.139196" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="55.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="106.424911" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="33.996339" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="96.996339" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="24.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="91.853482" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="25.139196" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="96.996339" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="46.853482" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="106.424911" style="0" customWidth="1"/>
   </x:cols>
@@ -586,13 +732,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13">
@@ -612,28 +758,25 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13">
@@ -662,19 +805,543 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="J4" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="K4" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="L4" s="0" t="s">
+      <x:c r="I5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="M4" s="0" t="s">
+      <x:c r="K5" s="0" t="s">
         <x:v>35</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="A9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="A10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="A12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="A14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="A15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="A16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="A17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="L17" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -691,7 +1358,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M4"/>
+  <x:dimension ref="A1:M17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -703,11 +1370,11 @@
     <x:col min="4" max="4" width="32.996339" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="26.567768" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="29.139196" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="55.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="106.424911" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="33.996339" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="96.996339" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="24.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="91.853482" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="25.139196" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="96.996339" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="46.853482" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="106.424911" style="0" customWidth="1"/>
   </x:cols>
@@ -785,13 +1452,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13">
@@ -811,27 +1478,24 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
@@ -861,19 +1525,543 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="J4" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="K4" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="L4" s="0" t="s">
+      <x:c r="I5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="M4" s="0" t="s">
+      <x:c r="K5" s="0" t="s">
         <x:v>35</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="A9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="A10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="A12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="A14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="A15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="A16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="A17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="L17" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -890,7 +2078,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:M4"/>
+  <x:dimension ref="A1:M17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -902,11 +2090,11 @@
     <x:col min="4" max="4" width="32.996339" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="26.567768" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="29.139196" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="55.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="106.424911" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="33.996339" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="96.996339" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="24.710625" style="0" customWidth="1"/>
-    <x:col min="11" max="11" width="91.853482" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="25.139196" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="96.996339" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="46.853482" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="106.424911" style="0" customWidth="1"/>
   </x:cols>
@@ -984,13 +2172,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13">
@@ -1010,28 +2198,25 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13">
@@ -1060,19 +2245,2703 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="A9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="A10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="A12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="A14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="A15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="A16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="A17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="L17" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:M17"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="22.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="32.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="26.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="29.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="106.424911" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="33.996339" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="96.996339" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="25.139196" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="96.996339" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="46.853482" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="106.424911" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:13">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:13">
+      <x:c r="A2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="A3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="J4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="A9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="A10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="A12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="A14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="A15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="A16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="A17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="L17" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:M17"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="22.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="32.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="26.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="29.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="106.424911" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="33.996339" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="96.996339" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="25.139196" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="96.996339" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="46.853482" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="106.424911" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:13">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:13">
+      <x:c r="A2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="A3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="K4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="A9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="A10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="A12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="A14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="A15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="A16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="A17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="L17" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:M17"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="22.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="32.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="26.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="29.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="106.424911" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="33.996339" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="96.996339" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="25.139196" style="0" customWidth="1"/>
+    <x:col min="11" max="11" width="96.996339" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="46.853482" style="0" customWidth="1"/>
+    <x:col min="13" max="13" width="106.424911" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:13">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:13">
+      <x:c r="A2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="A3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
       <x:c r="L4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="M4" s="0" t="s">
+      <x:c r="K5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>36</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="A9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="A10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="A12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="A14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="A15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="A16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="A17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="L17" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
